--- a/core/common/commonConfig/cModelMotion.xlsx
+++ b/core/common/commonConfig/cModelMotion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18380" windowHeight="9920"/>
+    <workbookView xWindow="9540" yWindow="460" windowWidth="15400" windowHeight="14700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,35 +130,44 @@
     <t>describe</t>
   </si>
   <si>
+    <t>bindPoints</t>
+  </si>
+  <si>
+    <t>inkey(model)</t>
+  </si>
+  <si>
+    <t>&lt;=0|inkey(motion)</t>
+  </si>
+  <si>
+    <t>ck</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>motionTime</t>
-  </si>
-  <si>
-    <t>bindPoints</t>
-  </si>
-  <si>
-    <t>inkey(model)</t>
-  </si>
-  <si>
-    <t>&lt;=0|inkey(motion)</t>
-  </si>
-  <si>
-    <t>ck</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -236,20 +245,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -559,7 +571,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -599,14 +611,14 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -639,15 +651,15 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -672,7 +684,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -680,11 +692,11 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -698,7 +710,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
